--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value529.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value529.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9010958764201351</v>
+        <v>1.296680569648743</v>
       </c>
       <c r="B1">
-        <v>1.288034564209721</v>
+        <v>2.296324968338013</v>
       </c>
       <c r="C1">
-        <v>1.64834085700652</v>
+        <v>2.917322158813477</v>
       </c>
       <c r="D1">
-        <v>1.797843902465218</v>
+        <v>3.35934591293335</v>
       </c>
       <c r="E1">
-        <v>2.111648462563376</v>
+        <v>1.699271678924561</v>
       </c>
     </row>
   </sheetData>
